--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/81_Zonguldak_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/81_Zonguldak_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AFFEDAE-29DE-4B2B-BA71-B267C741E280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CCC746D-1EF8-44E3-AFE3-B8CE3F0BB8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="668" xr2:uid="{9150729B-1EA0-482D-9663-F65EFF0A2862}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="668" xr2:uid="{F5F48FA8-DF00-4339-BEFC-7C6CBC7AAE22}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="146" r:id="rId1"/>
@@ -967,14 +967,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{C8BC8C64-7A25-4F99-BF7F-581D503D004F}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{DCB5834B-D464-4D0B-B13C-12144328E967}"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{286EEDCB-2C1C-46E7-96C7-EBD5E660926C}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{D3B7A565-A6B9-4A18-B6BC-DE78F3888286}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{19AD237C-64BD-4AD5-B2E0-C632B492CB7B}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{72A20C18-6979-4DC7-948D-ACB51C88FDB6}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{55698CCE-11A6-45BE-9057-D024E3BCD712}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{F9847EEE-1A0B-4D53-8E92-6CDBCBE85024}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{E4EC1EBF-3F70-441F-BAD3-70717388C355}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{E3C48BFC-CD17-48B6-B8A5-9A665D6EC120}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{B0747BE3-F8DD-4ACB-8557-B5573BADA4F7}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{A87EDB72-7FD1-4CE7-B5CE-4F0E2CCAEB4A}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{E7F39F8D-9E7E-4DCD-A996-D72B32CFA352}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{30C321E4-82DD-4DAB-9586-C5411CE30F0B}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{F4FEF4A9-CEC5-4D22-8724-09909E3F58F4}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{5D7B8073-035D-44EE-A5DD-3639329F8347}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1344,7 +1344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EBE99F-1815-418B-A859-832A66427A36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2BA6EBB-5A6E-4B55-BD19-477DD2377C6A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2637,7 +2637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9641B159-A2D5-4617-99F2-062E1E88A562}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64519FF5-9B71-40E5-92A9-BF5D842CD38A}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -3923,7 +3923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35BB6D6-4010-4560-A5E2-5BB33E13D808}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE8B3EAA-A9F6-40CE-99AE-46F33C0261C9}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -5211,7 +5211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA3EC2D-784E-4F32-807F-5878508C7D04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1988B31B-F220-456C-8E43-7C057DEFC5EB}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -6499,7 +6499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCAFBF2-F4BF-48EC-897F-DB3839AE1061}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9F6DC1-3BF1-46FB-9A83-B4C6C8FF7825}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7792,7 +7792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DCEFB66-018A-4991-9660-36C0B5E101AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8797BEE2-2D02-46FF-B2EF-E698C8EFA726}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9083,7 +9083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D824483C-4EE0-4478-9FB8-3440F246F9BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5928A0-C90D-413F-A613-5ADBD9B5C469}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10374,7 +10374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA259B1-CCE5-4CD9-8813-5D61A18C5159}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5887F8-F84F-4369-83B9-C75C3F2B19B2}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11665,7 +11665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3175873E-E790-4BA6-9944-6228D626470D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A5781C-FDBE-4A5A-B33B-13668840BDFB}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12950,7 +12950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC7AD91-C25A-44C9-92D5-3C6FB0AFF8CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4566D25B-47C9-491B-9BEC-7B768DBBFD4B}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -14236,7 +14236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0519061B-5ACA-4754-B808-8194D119C5CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71269270-276F-46BF-A190-927FED2CC194}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -15522,7 +15522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2196CE8D-C61D-48AD-9F1A-2160A247EB6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5446A68A-68DD-4D08-8E0B-A7A2DBFBA978}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
